--- a/VersionRecords/Version 3.2.0/定时器/新增定时器.xlsx
+++ b/VersionRecords/Version 3.2.0/定时器/新增定时器.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\定时器\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" tabRatio="185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="14070" tabRatio="185"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>定时器大类</t>
   </si>
@@ -126,6 +131,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(mogoda-tasktracker)</t>
@@ -141,6 +147,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（mogoda-tasktracker包）</t>
@@ -150,6 +157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -180,6 +188,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>(mogoda-tasktracker)</t>
@@ -195,6 +204,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（mogoda-tasktracker包）</t>
@@ -204,6 +214,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -225,18 +236,220 @@
 稳定后：每3分钟执行一次
 </t>
   </si>
+  <si>
+    <t>MsgWhenLoanOverDueTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客还款逾期，给房东发送短信和推送（聚有财）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.MsgWhenLoanOverDueTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.MsgWhenLoanOverDueTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日8点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新跑一下定时器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoopDealWithBuyBackTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>买回定时器（聚有财）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>买回定时器（聚有财）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoopDealWithBuyBackTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoopDealWithBuyBackTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoopDealWithBuyBackTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日6点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncContractEndStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>和第三方同步合同关闭状态（聚有财）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>和第三方同步合同关闭状态（聚有财）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncContractEndStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncContractEndStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncContractEndStatus"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日4点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新跑一下定时器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncJycRenterBillStatus</t>
+  </si>
+  <si>
+    <t>同步租客账单还款状态定时器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncJycRenterBillStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncJycRenterBillStatus"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0分钟执行</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncApproveStatusTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇宝同步资方审批状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncApproveStatusTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncApproveStatusTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncApproveStatusTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncLendingStatus</t>
+  </si>
+  <si>
+    <t>蘑菇宝同步资方放款状态</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.SyncLendingStatus</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.SyncLendingStatus"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新跑一下定时器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaculateLandlordCreditsTask</t>
+  </si>
+  <si>
+    <t>计算所有房东信用额度</t>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.CaculateLandlordCreditsTask"}</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日2点</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>JYC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +462,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -256,6 +470,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -263,6 +478,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,6 +486,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -278,151 +495,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,16 +504,47 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,7 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,188 +563,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -715,387 +640,154 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1356,15 +1048,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.25" style="3" customWidth="1"/>
@@ -1386,7 +1077,7 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27.75" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1417,189 +1108,527 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="45" customHeight="1" spans="1:18">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="57" spans="1:18">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:18" ht="57" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="15" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:XFD4"/>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>